--- a/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>东方量化成长灵活配置混合</t>
   </si>
   <si>
+    <t>0.28</t>
+  </si>
+  <si>
     <t>92.96</t>
   </si>
   <si>
     <t>1.98</t>
+  </si>
+  <si>
+    <t>0.0055</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005616</t>
-  </si>
-  <si>
-    <t>东方量化成长灵活配置混合</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>92.96</t>
-  </si>
-  <si>
-    <t>1.98</t>
-  </si>
-  <si>
-    <t>0.0055</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3073</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0497</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3655</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>41.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,2148 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4328</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1863</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9741</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9234</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8635</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6685</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6610</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4594</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3194,4 +3195,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3203,7 +3204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3214,17 +3215,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3234,14 +3255,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.59</v>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5905</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3250,14 +3293,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.22</v>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3266,13 +3331,3363 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4649</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3992</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8813</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8131</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7260</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5331</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3785</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2427</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2420</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0806</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9828</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9501</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9479</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9378</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7307</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6815</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6390</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6376</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6217</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5989</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5564</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5215</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3568</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6602,7 +6603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6613,17 +6614,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6633,14 +6654,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49.91</v>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6649,14 +6692,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.59</v>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9183</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6665,14 +6730,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.22</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3844</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6681,13 +6768,1823 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0352</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5679</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4932</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3578</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9759</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9132</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8985</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7204</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7121</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6712</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6129</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5984</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8483,7 +8484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8494,17 +8495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8514,14 +8535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.89</v>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -8530,14 +8573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>88</v>
-      </c>
-      <c r="D3" t="n">
-        <v>49.91</v>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -8546,14 +8611,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.59</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -8562,14 +8649,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.22</v>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9602</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -8578,13 +8687,2485 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6715</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2843</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1512</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1093</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0301</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8778</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8278</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6363</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6191</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5304</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4853</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3353</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2799</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>31.2</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>27.89</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>49.91</v>
+        <v>27.89</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
-        <v>18.59</v>
+        <v>49.91</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>6.22</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -583,6 +600,5484 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6345</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0699</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5239</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5239</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4588</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>55.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4267</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4230</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3857</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2274</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>54.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>48.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1754</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9288</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8477</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7661</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7453</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6927</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6782</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6692</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6534</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6177</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5765</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5092</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4767</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4661</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河行业混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4035</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501186</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2881</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014611</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>48.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013665</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商行業領先混合型證券投資基金 H</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合D</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013369</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>27.89</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011629</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银河核心优势混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>016029</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013666</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银河成长优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012779</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007663</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013370</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>014612</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002282</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003697</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰盛混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>012780</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>016030</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>015670</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>银河行业混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>016214</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>015849</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>014836</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>汇添富创新活力混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>-0.0004</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3146,7 +8641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5026,7 +10521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8424,7 +13919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10568,7 +16063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11080,7 +16575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300604-长川科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>46.4</v>
+        <v>27.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>31.2</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
-        <v>27.89</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>49.91</v>
+        <v>27.89</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
-        <v>18.59</v>
+        <v>49.91</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>6.22</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -600,6 +617,3093 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1757</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6290</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6170</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4236</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2691</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1917</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0189</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>53.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9818</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9416</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7651</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6680</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5019</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4774</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4669</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4580</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4545</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4135</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3724</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3648</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3431</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3167</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2768</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013369</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014806</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国金量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012779</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013370</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014805</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国金量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015967</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>永赢半导体产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012780</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015968</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢半导体产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合B</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6077,7 +9181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8641,7 +11745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10521,7 +13625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13919,7 +17023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16063,7 +19167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16575,7 +19679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
